--- a/helperFunctions/reports/member_data.xlsx
+++ b/helperFunctions/reports/member_data.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,17 +473,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ft Class</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>Date</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
         </is>
       </c>
     </row>
@@ -533,15 +523,9 @@
           <t>Pastor Anna</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2025-05-20</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>VISITOR</t>
         </is>
       </c>
     </row>
@@ -591,15 +575,9 @@
           <t>Pastor Sarah</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2025-05-22</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>VISITOR</t>
         </is>
       </c>
     </row>
@@ -649,15 +627,9 @@
           <t>Pastor Luke</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>2025-05-21</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>VISITOR</t>
         </is>
       </c>
     </row>
@@ -707,15 +679,9 @@
           <t>Pastor Mark</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>2025-05-19</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>VISITOR</t>
         </is>
       </c>
     </row>
@@ -765,17 +731,39 @@
           <t>Pastor Grace</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>2025-05-18</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>VISITOR</t>
-        </is>
-      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shdkjf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>dsf</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MEMBERSHIP</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
